--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,25 +464,35 @@
           <t>Frequencia Acumulada (%)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Intervalo de Classes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -490,19 +500,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -510,19 +525,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="D4" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -530,19 +550,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.8</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -550,19 +575,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D6" t="n">
         <v>0.046</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="n">
         <v>4.6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -584,25 +614,35 @@
       <c r="F7" t="n">
         <v>5.399999999999999</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>6.199999999999999</v>
+        <v>6.299999999999999</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -610,19 +650,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.075</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
-        <v>7.1</v>
+        <v>7.499999999999999</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -630,19 +675,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.078</v>
+        <v>0.09</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F10" t="n">
-        <v>7.8</v>
+        <v>9</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -650,19 +700,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.097</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>8.699999999999999</v>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -670,19 +725,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09899999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E12" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>9.899999999999999</v>
+        <v>10.5</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -690,19 +750,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.107</v>
+        <v>0.114</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>10.7</v>
+        <v>11.4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -710,19 +775,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>0.12</v>
+        <v>0.124</v>
       </c>
       <c r="E14" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>12.4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -730,19 +800,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="D15" t="n">
-        <v>0.128</v>
+        <v>0.136</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F15" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -750,19 +825,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>14.3</v>
+        <v>14.6</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -776,13 +856,18 @@
         <v>0.011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.154</v>
+        <v>0.157</v>
       </c>
       <c r="E17" t="n">
         <v>1.1</v>
       </c>
       <c r="F17" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -790,19 +875,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -810,19 +900,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="D19" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F19" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -830,19 +925,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.186</v>
+        <v>0.1870000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -856,13 +956,18 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195</v>
+        <v>0.1960000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>19.5</v>
+        <v>19.59999999999999</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(-0.001, 19.8]</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -876,13 +981,18 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.204</v>
+        <v>0.2050000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>20.4</v>
+        <v>20.49999999999999</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -890,19 +1000,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209</v>
+        <v>0.2190000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F23" t="n">
-        <v>20.9</v>
+        <v>21.89999999999999</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -910,19 +1025,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
-        <v>0.014</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223</v>
+        <v>0.2280000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>22.29999999999999</v>
+        <v>22.79999999999999</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -930,19 +1050,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="D25" t="n">
-        <v>0.231</v>
+        <v>0.2430000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F25" t="n">
-        <v>23.09999999999999</v>
+        <v>24.29999999999999</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -950,19 +1075,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D26" t="n">
-        <v>0.237</v>
+        <v>0.2510000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F26" t="n">
-        <v>23.7</v>
+        <v>25.09999999999999</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -970,19 +1100,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2450000000000001</v>
+        <v>0.2580000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>24.5</v>
+        <v>25.79999999999999</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -990,19 +1125,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2540000000000001</v>
+        <v>0.2730000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F28" t="n">
-        <v>25.4</v>
+        <v>27.29999999999999</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1016,13 +1156,18 @@
         <v>0.013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2670000000000001</v>
+        <v>0.2860000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>1.3</v>
       </c>
       <c r="F29" t="n">
-        <v>26.7</v>
+        <v>28.59999999999999</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1030,19 +1175,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2830000000000001</v>
+        <v>0.3040000000000002</v>
       </c>
       <c r="E30" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="F30" t="n">
-        <v>28.3</v>
+        <v>30.39999999999999</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1050,19 +1200,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2880000000000001</v>
+        <v>0.3130000000000002</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>28.8</v>
+        <v>31.29999999999999</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1070,19 +1225,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3020000000000001</v>
+        <v>0.3200000000000002</v>
       </c>
       <c r="E32" t="n">
-        <v>1.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>30.2</v>
+        <v>31.99999999999999</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1090,19 +1250,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3120000000000001</v>
+        <v>0.3330000000000002</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F33" t="n">
-        <v>31.2</v>
+        <v>33.29999999999999</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1110,19 +1275,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3270000000000001</v>
+        <v>0.3470000000000002</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F34" t="n">
-        <v>32.7</v>
+        <v>34.69999999999999</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -1130,19 +1300,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3380000000000001</v>
+        <v>0.3570000000000002</v>
       </c>
       <c r="E35" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>33.8</v>
+        <v>35.69999999999999</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1150,19 +1325,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3460000000000001</v>
+        <v>0.3680000000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="F36" t="n">
-        <v>34.59999999999999</v>
+        <v>36.79999999999999</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -1170,19 +1350,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3550000000000001</v>
+        <v>0.3750000000000002</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49999999999999</v>
+        <v>37.49999999999999</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1190,19 +1375,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3630000000000002</v>
+        <v>0.3860000000000002</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="F38" t="n">
-        <v>36.29999999999999</v>
+        <v>38.59999999999999</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -1210,19 +1400,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3730000000000002</v>
+        <v>0.3990000000000002</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F39" t="n">
-        <v>37.29999999999999</v>
+        <v>39.89999999999999</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1230,19 +1425,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3820000000000002</v>
+        <v>0.4090000000000003</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>38.19999999999999</v>
+        <v>40.89999999999999</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1250,19 +1450,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C41" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3950000000000002</v>
+        <v>0.4180000000000003</v>
       </c>
       <c r="E41" t="n">
-        <v>1.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>39.49999999999999</v>
+        <v>41.79999999999999</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>(19.8, 39.6]</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1270,19 +1475,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4090000000000002</v>
+        <v>0.4280000000000003</v>
       </c>
       <c r="E42" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>40.89999999999998</v>
+        <v>42.79999999999999</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1290,19 +1500,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4150000000000002</v>
+        <v>0.4410000000000003</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="F43" t="n">
-        <v>41.49999999999999</v>
+        <v>44.09999999999999</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1310,19 +1525,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4220000000000002</v>
+        <v>0.4510000000000003</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>42.19999999999999</v>
+        <v>45.09999999999999</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -1330,19 +1550,24 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4260000000000002</v>
+        <v>0.4560000000000003</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F45" t="n">
-        <v>42.59999999999999</v>
+        <v>45.59999999999999</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1350,19 +1575,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4320000000000002</v>
+        <v>0.4700000000000003</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="F46" t="n">
-        <v>43.19999999999999</v>
+        <v>46.99999999999999</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1370,19 +1600,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C47" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4490000000000002</v>
+        <v>0.4830000000000003</v>
       </c>
       <c r="E47" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F47" t="n">
-        <v>44.89999999999999</v>
+        <v>48.29999999999998</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1390,19 +1625,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4560000000000002</v>
+        <v>0.4920000000000003</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>45.59999999999999</v>
+        <v>49.19999999999998</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1416,13 +1656,18 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4650000000000002</v>
+        <v>0.5010000000000003</v>
       </c>
       <c r="E49" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>46.49999999999999</v>
+        <v>50.09999999999998</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1430,19 +1675,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C50" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4740000000000003</v>
+        <v>0.5130000000000003</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F50" t="n">
-        <v>47.39999999999999</v>
+        <v>51.29999999999998</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -1450,19 +1700,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4820000000000003</v>
+        <v>0.5200000000000004</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>48.19999999999999</v>
+        <v>51.99999999999999</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1476,13 +1731,18 @@
         <v>0.008</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4900000000000003</v>
+        <v>0.5280000000000004</v>
       </c>
       <c r="E52" t="n">
         <v>0.8</v>
       </c>
       <c r="F52" t="n">
-        <v>48.99999999999999</v>
+        <v>52.79999999999998</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1490,19 +1750,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5000000000000002</v>
+        <v>0.5360000000000004</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="n">
-        <v>49.99999999999999</v>
+        <v>53.59999999999998</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1510,19 +1775,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5070000000000002</v>
+        <v>0.5480000000000004</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="F54" t="n">
-        <v>50.69999999999999</v>
+        <v>54.79999999999998</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1536,13 +1806,18 @@
         <v>0.007</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5140000000000002</v>
+        <v>0.5550000000000004</v>
       </c>
       <c r="E55" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>51.39999999999999</v>
+        <v>55.49999999999999</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -1550,19 +1825,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5210000000000002</v>
+        <v>0.5660000000000004</v>
       </c>
       <c r="E56" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F56" t="n">
-        <v>52.09999999999999</v>
+        <v>56.59999999999999</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -1570,19 +1850,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5310000000000002</v>
+        <v>0.5800000000000004</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F57" t="n">
-        <v>53.09999999999999</v>
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1590,19 +1875,24 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5410000000000003</v>
+        <v>0.5910000000000004</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F58" t="n">
-        <v>54.09999999999999</v>
+        <v>59.09999999999999</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1610,19 +1900,24 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5520000000000003</v>
+        <v>0.5980000000000004</v>
       </c>
       <c r="E59" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>55.2</v>
+        <v>59.79999999999999</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -1630,19 +1925,24 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C60" t="n">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5680000000000003</v>
+        <v>0.6050000000000004</v>
       </c>
       <c r="E60" t="n">
-        <v>1.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>56.8</v>
+        <v>60.49999999999999</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -1650,19 +1950,24 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>0.017</v>
+        <v>0.006</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5850000000000003</v>
+        <v>0.6110000000000004</v>
       </c>
       <c r="E61" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="F61" t="n">
-        <v>58.5</v>
+        <v>61.09999999999999</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>(39.6, 59.4]</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -1670,19 +1975,24 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5950000000000003</v>
+        <v>0.6190000000000004</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F62" t="n">
-        <v>59.5</v>
+        <v>61.89999999999999</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -1690,19 +2000,24 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6010000000000003</v>
+        <v>0.6270000000000004</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F63" t="n">
-        <v>60.1</v>
+        <v>62.69999999999999</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -1710,19 +2025,24 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6120000000000003</v>
+        <v>0.6340000000000005</v>
       </c>
       <c r="E64" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>61.2</v>
+        <v>63.39999999999999</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -1730,19 +2050,24 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C65" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6270000000000003</v>
+        <v>0.6390000000000005</v>
       </c>
       <c r="E65" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F65" t="n">
-        <v>62.7</v>
+        <v>63.89999999999999</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -1750,19 +2075,24 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C66" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6390000000000003</v>
+        <v>0.6460000000000005</v>
       </c>
       <c r="E66" t="n">
-        <v>1.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>63.90000000000001</v>
+        <v>64.59999999999999</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -1770,19 +2100,24 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6540000000000004</v>
+        <v>0.6550000000000005</v>
       </c>
       <c r="E67" t="n">
-        <v>1.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.40000000000001</v>
+        <v>65.5</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1790,19 +2125,24 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6640000000000004</v>
+        <v>0.6700000000000005</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F68" t="n">
-        <v>66.40000000000001</v>
+        <v>67</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -1810,19 +2150,24 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C69" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6720000000000004</v>
+        <v>0.6800000000000005</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>67.2</v>
+        <v>68</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -1830,19 +2175,24 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6800000000000004</v>
+        <v>0.6980000000000005</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="F70" t="n">
-        <v>68</v>
+        <v>69.8</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="71">
@@ -1850,19 +2200,24 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6880000000000004</v>
+        <v>0.7040000000000005</v>
       </c>
       <c r="E71" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F71" t="n">
-        <v>68.8</v>
+        <v>70.39999999999999</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="72">
@@ -1870,19 +2225,24 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6980000000000004</v>
+        <v>0.7130000000000005</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>69.8</v>
+        <v>71.3</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1890,19 +2250,24 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7080000000000004</v>
+        <v>0.7270000000000005</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="F73" t="n">
-        <v>70.8</v>
+        <v>72.7</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -1910,19 +2275,24 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7190000000000004</v>
+        <v>0.7370000000000005</v>
       </c>
       <c r="E74" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>71.89999999999999</v>
+        <v>73.7</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -1930,19 +2300,24 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.7450000000000006</v>
       </c>
       <c r="E75" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F75" t="n">
-        <v>72.99999999999999</v>
+        <v>74.5</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -1956,13 +2331,18 @@
         <v>0.007</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7370000000000004</v>
+        <v>0.7520000000000006</v>
       </c>
       <c r="E76" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="F76" t="n">
-        <v>73.69999999999999</v>
+        <v>75.2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -1970,19 +2350,24 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C77" t="n">
-        <v>0.022</v>
+        <v>0.008</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7590000000000005</v>
+        <v>0.7600000000000006</v>
       </c>
       <c r="E77" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="F77" t="n">
-        <v>75.89999999999999</v>
+        <v>76</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1990,19 +2375,24 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7660000000000005</v>
+        <v>0.7740000000000006</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F78" t="n">
-        <v>76.59999999999999</v>
+        <v>77.40000000000001</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -2010,19 +2400,24 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7800000000000005</v>
+        <v>0.7820000000000006</v>
       </c>
       <c r="E79" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F79" t="n">
-        <v>78</v>
+        <v>78.2</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -2036,13 +2431,18 @@
         <v>0.007</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7870000000000005</v>
+        <v>0.7890000000000006</v>
       </c>
       <c r="E80" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>78.7</v>
+        <v>78.90000000000001</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="81">
@@ -2050,19 +2450,24 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7950000000000005</v>
+        <v>0.8030000000000006</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F81" t="n">
-        <v>79.5</v>
+        <v>80.30000000000001</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(59.4, 79.2]</t>
+        </is>
       </c>
     </row>
     <row r="82">
@@ -2070,19 +2475,24 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8040000000000005</v>
+        <v>0.8110000000000006</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="n">
-        <v>80.40000000000001</v>
+        <v>81.10000000000001</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -2090,19 +2500,24 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C83" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8110000000000005</v>
+        <v>0.8200000000000006</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>81.10000000000001</v>
+        <v>82.00000000000001</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="84">
@@ -2110,19 +2525,24 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8170000000000005</v>
+        <v>0.8280000000000006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F84" t="n">
-        <v>81.7</v>
+        <v>82.80000000000001</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -2130,19 +2550,24 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8300000000000005</v>
+        <v>0.8400000000000006</v>
       </c>
       <c r="E85" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F85" t="n">
-        <v>83</v>
+        <v>84.00000000000001</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="86">
@@ -2150,19 +2575,24 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8500000000000005</v>
+        <v>0.8550000000000006</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F86" t="n">
-        <v>85</v>
+        <v>85.50000000000001</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="87">
@@ -2170,19 +2600,24 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8650000000000005</v>
+        <v>0.8660000000000007</v>
       </c>
       <c r="E87" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="F87" t="n">
-        <v>86.5</v>
+        <v>86.60000000000001</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -2190,19 +2625,24 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8690000000000005</v>
+        <v>0.8730000000000007</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F88" t="n">
-        <v>86.90000000000001</v>
+        <v>87.30000000000001</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2210,19 +2650,24 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C89" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8760000000000006</v>
+        <v>0.8880000000000007</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F89" t="n">
-        <v>87.60000000000001</v>
+        <v>88.80000000000001</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -2230,19 +2675,24 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8820000000000006</v>
+        <v>0.8970000000000007</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>88.2</v>
+        <v>89.70000000000002</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -2250,19 +2700,24 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C91" t="n">
-        <v>0.022</v>
+        <v>0.013</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9040000000000006</v>
+        <v>0.9100000000000007</v>
       </c>
       <c r="E91" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="F91" t="n">
-        <v>90.40000000000001</v>
+        <v>91.00000000000001</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2270,19 +2725,24 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9110000000000006</v>
+        <v>0.9190000000000007</v>
       </c>
       <c r="E92" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F92" t="n">
-        <v>91.10000000000001</v>
+        <v>91.90000000000002</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="93">
@@ -2290,19 +2750,24 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9180000000000006</v>
+        <v>0.9280000000000007</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>91.80000000000001</v>
+        <v>92.80000000000003</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2310,19 +2775,24 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9290000000000006</v>
+        <v>0.9370000000000007</v>
       </c>
       <c r="E94" t="n">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>92.90000000000001</v>
+        <v>93.70000000000003</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="95">
@@ -2336,13 +2806,18 @@
         <v>0.007</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9360000000000006</v>
+        <v>0.9440000000000007</v>
       </c>
       <c r="E95" t="n">
         <v>0.7000000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>93.60000000000001</v>
+        <v>94.40000000000003</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="96">
@@ -2350,19 +2825,24 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9510000000000006</v>
+        <v>0.9540000000000007</v>
       </c>
       <c r="E96" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>95.10000000000001</v>
+        <v>95.40000000000003</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="97">
@@ -2370,19 +2850,24 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9570000000000006</v>
+        <v>0.9610000000000007</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>95.7</v>
+        <v>96.10000000000004</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -2390,19 +2875,24 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9640000000000006</v>
+        <v>0.9690000000000007</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F98" t="n">
-        <v>96.40000000000001</v>
+        <v>96.90000000000003</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -2410,19 +2900,24 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9710000000000006</v>
+        <v>0.9780000000000008</v>
       </c>
       <c r="E99" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>97.10000000000001</v>
+        <v>97.80000000000004</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="100">
@@ -2436,13 +2931,18 @@
         <v>0.011</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9820000000000007</v>
+        <v>0.9890000000000008</v>
       </c>
       <c r="E100" t="n">
         <v>1.1</v>
       </c>
       <c r="F100" t="n">
-        <v>98.2</v>
+        <v>98.90000000000003</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
     <row r="101">
@@ -2450,19 +2950,24 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="D101" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="F101" t="n">
         <v>100</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>(79.2, 99.0]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/frequencia.xlsx
+++ b/frequencia.xlsx
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,19 +500,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -525,19 +525,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D4" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -550,19 +550,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="D5" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -575,19 +575,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -600,19 +600,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.054</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F7" t="n">
-        <v>5.399999999999999</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -625,19 +625,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.004</v>
       </c>
       <c r="D8" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F8" t="n">
-        <v>6.299999999999999</v>
+        <v>6.000000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -650,19 +650,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="D9" t="n">
-        <v>0.075</v>
+        <v>0.066</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>7.499999999999999</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -675,19 +675,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -700,19 +700,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D11" t="n">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -725,19 +725,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.105</v>
+        <v>0.102</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -756,13 +756,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.114</v>
+        <v>0.111</v>
       </c>
       <c r="E13" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -775,19 +775,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="D14" t="n">
-        <v>0.124</v>
+        <v>0.115</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F14" t="n">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.136</v>
+        <v>0.124</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>13.6</v>
+        <v>12.4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -825,19 +825,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.146</v>
+        <v>0.136</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F16" t="n">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -850,19 +850,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="D17" t="n">
-        <v>0.157</v>
+        <v>0.149</v>
       </c>
       <c r="E17" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="F17" t="n">
-        <v>15.7</v>
+        <v>14.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.166</v>
+        <v>0.158</v>
       </c>
       <c r="E18" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -900,19 +900,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="D19" t="n">
-        <v>0.178</v>
+        <v>0.173</v>
       </c>
       <c r="E19" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F19" t="n">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -925,19 +925,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1870000000000001</v>
+        <v>0.1830000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>18.7</v>
+        <v>18.3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1960000000000001</v>
+        <v>0.1920000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>19.59999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -981,13 +981,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2050000000000001</v>
+        <v>0.2010000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>20.49999999999999</v>
+        <v>20.1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1000,19 +1000,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2190000000000001</v>
+        <v>0.2110000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>21.89999999999999</v>
+        <v>21.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1025,19 +1025,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2280000000000001</v>
+        <v>0.2190000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F24" t="n">
-        <v>22.79999999999999</v>
+        <v>21.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1050,19 +1050,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2430000000000001</v>
+        <v>0.2310000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F25" t="n">
-        <v>24.29999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1075,19 +1075,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2510000000000001</v>
+        <v>0.2410000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>25.09999999999999</v>
+        <v>24.1</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1100,19 +1100,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2580000000000001</v>
+        <v>0.2560000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F27" t="n">
-        <v>25.79999999999999</v>
+        <v>25.6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1125,19 +1125,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2730000000000001</v>
+        <v>0.2700000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F28" t="n">
-        <v>27.29999999999999</v>
+        <v>27</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1150,19 +1150,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2860000000000001</v>
+        <v>0.2810000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F29" t="n">
-        <v>28.59999999999999</v>
+        <v>28.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1175,19 +1175,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C30" t="n">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3040000000000002</v>
+        <v>0.2840000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="F30" t="n">
-        <v>30.39999999999999</v>
+        <v>28.4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1200,19 +1200,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3130000000000002</v>
+        <v>0.2970000000000002</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="F31" t="n">
-        <v>31.29999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1225,19 +1225,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3200000000000002</v>
+        <v>0.3050000000000002</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F32" t="n">
-        <v>31.99999999999999</v>
+        <v>30.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1250,19 +1250,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3330000000000002</v>
+        <v>0.3130000000000002</v>
       </c>
       <c r="E33" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F33" t="n">
-        <v>33.29999999999999</v>
+        <v>31.3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1275,19 +1275,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3470000000000002</v>
+        <v>0.3260000000000002</v>
       </c>
       <c r="E34" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F34" t="n">
-        <v>34.69999999999999</v>
+        <v>32.6</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1300,19 +1300,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3570000000000002</v>
+        <v>0.3350000000000002</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>35.69999999999999</v>
+        <v>33.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1325,19 +1325,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3680000000000002</v>
+        <v>0.3420000000000002</v>
       </c>
       <c r="E36" t="n">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>36.79999999999999</v>
+        <v>34.2</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1350,19 +1350,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3750000000000002</v>
+        <v>0.3450000000000002</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
-        <v>37.49999999999999</v>
+        <v>34.5</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1381,13 +1381,13 @@
         <v>0.011</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3860000000000002</v>
+        <v>0.3560000000000002</v>
       </c>
       <c r="E38" t="n">
         <v>1.1</v>
       </c>
       <c r="F38" t="n">
-        <v>38.59999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1400,19 +1400,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3990000000000002</v>
+        <v>0.3640000000000002</v>
       </c>
       <c r="E39" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F39" t="n">
-        <v>39.89999999999999</v>
+        <v>36.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1425,19 +1425,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4090000000000003</v>
+        <v>0.3710000000000002</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>40.89999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1450,19 +1450,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4180000000000003</v>
+        <v>0.3830000000000002</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="F41" t="n">
-        <v>41.79999999999999</v>
+        <v>38.3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1475,19 +1475,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4280000000000003</v>
+        <v>0.3980000000000002</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F42" t="n">
-        <v>42.79999999999999</v>
+        <v>39.8</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1500,19 +1500,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4410000000000003</v>
+        <v>0.4090000000000003</v>
       </c>
       <c r="E43" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F43" t="n">
-        <v>44.09999999999999</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
         <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4510000000000003</v>
+        <v>0.4190000000000003</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>45.09999999999999</v>
+        <v>41.90000000000001</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1550,19 +1550,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4560000000000003</v>
+        <v>0.4310000000000003</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="F45" t="n">
-        <v>45.59999999999999</v>
+        <v>43.10000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1575,19 +1575,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C46" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4700000000000003</v>
+        <v>0.4410000000000003</v>
       </c>
       <c r="E46" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>46.99999999999999</v>
+        <v>44.10000000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1600,19 +1600,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C47" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4830000000000003</v>
+        <v>0.4500000000000003</v>
       </c>
       <c r="E47" t="n">
-        <v>1.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>48.29999999999998</v>
+        <v>45.00000000000001</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1631,13 +1631,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4920000000000003</v>
+        <v>0.4590000000000003</v>
       </c>
       <c r="E48" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>49.19999999999998</v>
+        <v>45.90000000000001</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1650,19 +1650,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5010000000000003</v>
+        <v>0.4740000000000003</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="n">
-        <v>50.09999999999998</v>
+        <v>47.40000000000001</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1675,19 +1675,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5130000000000003</v>
+        <v>0.4840000000000003</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>51.29999999999998</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1700,19 +1700,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5200000000000004</v>
+        <v>0.4990000000000003</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F51" t="n">
-        <v>51.99999999999999</v>
+        <v>49.90000000000001</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1725,19 +1725,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5280000000000004</v>
+        <v>0.5110000000000003</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F52" t="n">
-        <v>52.79999999999998</v>
+        <v>51.10000000000001</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1750,19 +1750,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5360000000000004</v>
+        <v>0.5170000000000003</v>
       </c>
       <c r="E53" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F53" t="n">
-        <v>53.59999999999998</v>
+        <v>51.70000000000001</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -1775,19 +1775,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>0.012</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5480000000000004</v>
+        <v>0.5260000000000004</v>
       </c>
       <c r="E54" t="n">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>54.79999999999998</v>
+        <v>52.60000000000001</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1800,19 +1800,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5550000000000004</v>
+        <v>0.5370000000000004</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F55" t="n">
-        <v>55.49999999999999</v>
+        <v>53.70000000000001</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -1825,19 +1825,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5660000000000004</v>
+        <v>0.5560000000000004</v>
       </c>
       <c r="E56" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="F56" t="n">
-        <v>56.59999999999999</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -1850,19 +1850,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C57" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5800000000000004</v>
+        <v>0.5660000000000004</v>
       </c>
       <c r="E57" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>57.99999999999999</v>
+        <v>56.60000000000001</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -1875,19 +1875,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5910000000000004</v>
+        <v>0.5840000000000004</v>
       </c>
       <c r="E58" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="F58" t="n">
-        <v>59.09999999999999</v>
+        <v>58.40000000000001</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -1900,19 +1900,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5980000000000004</v>
+        <v>0.5880000000000004</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="F59" t="n">
-        <v>59.79999999999999</v>
+        <v>58.8</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -1925,19 +1925,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6050000000000004</v>
+        <v>0.5970000000000004</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>60.49999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -1950,19 +1950,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>0.006</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6110000000000004</v>
+        <v>0.6060000000000004</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>61.09999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -1975,19 +1975,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6190000000000004</v>
+        <v>0.6120000000000004</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F62" t="n">
-        <v>61.89999999999999</v>
+        <v>61.2</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2000,19 +2000,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6270000000000004</v>
+        <v>0.6320000000000005</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>62.69999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2025,19 +2025,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6340000000000005</v>
+        <v>0.6470000000000005</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="F64" t="n">
-        <v>63.39999999999999</v>
+        <v>64.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2050,19 +2050,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6390000000000005</v>
+        <v>0.6550000000000005</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F65" t="n">
-        <v>63.89999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2075,19 +2075,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6460000000000005</v>
+        <v>0.6640000000000005</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>64.59999999999999</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6550000000000005</v>
+        <v>0.6730000000000005</v>
       </c>
       <c r="E67" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>65.5</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2125,19 +2125,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6700000000000005</v>
+        <v>0.6810000000000005</v>
       </c>
       <c r="E68" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="F68" t="n">
-        <v>67</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2150,19 +2150,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6800000000000005</v>
+        <v>0.6860000000000005</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
-        <v>68</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2175,19 +2175,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>0.018</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6980000000000005</v>
+        <v>0.6950000000000005</v>
       </c>
       <c r="E70" t="n">
-        <v>1.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>69.8</v>
+        <v>69.50000000000001</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2200,19 +2200,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C71" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7040000000000005</v>
+        <v>0.7070000000000005</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F71" t="n">
-        <v>70.39999999999999</v>
+        <v>70.70000000000002</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2225,19 +2225,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7130000000000005</v>
+        <v>0.7140000000000005</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="F72" t="n">
-        <v>71.3</v>
+        <v>71.40000000000002</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2250,19 +2250,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C73" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7270000000000005</v>
+        <v>0.7240000000000005</v>
       </c>
       <c r="E73" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>72.7</v>
+        <v>72.40000000000002</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2275,19 +2275,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7370000000000005</v>
+        <v>0.7430000000000005</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="F74" t="n">
-        <v>73.7</v>
+        <v>74.30000000000003</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2300,19 +2300,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C75" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7450000000000006</v>
+        <v>0.7550000000000006</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="F75" t="n">
-        <v>74.5</v>
+        <v>75.50000000000003</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2325,19 +2325,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7520000000000006</v>
+        <v>0.7640000000000006</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>75.2</v>
+        <v>76.40000000000003</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2350,19 +2350,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C77" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7600000000000006</v>
+        <v>0.7770000000000006</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="F77" t="n">
-        <v>76</v>
+        <v>77.70000000000003</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2375,19 +2375,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C78" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7740000000000006</v>
+        <v>0.7850000000000006</v>
       </c>
       <c r="E78" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="n">
-        <v>77.40000000000001</v>
+        <v>78.50000000000003</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2400,19 +2400,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7820000000000006</v>
+        <v>0.7940000000000006</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>78.2</v>
+        <v>79.40000000000003</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2425,19 +2425,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7890000000000006</v>
+        <v>0.8020000000000006</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F80" t="n">
-        <v>78.90000000000001</v>
+        <v>80.20000000000003</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2450,19 +2450,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8030000000000006</v>
+        <v>0.8100000000000006</v>
       </c>
       <c r="E81" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="F81" t="n">
-        <v>80.30000000000001</v>
+        <v>81.00000000000003</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
         <v>0.008</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8110000000000006</v>
+        <v>0.8180000000000006</v>
       </c>
       <c r="E82" t="n">
         <v>0.8</v>
       </c>
       <c r="F82" t="n">
-        <v>81.10000000000001</v>
+        <v>81.80000000000003</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2506,13 +2506,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8200000000000006</v>
+        <v>0.8270000000000006</v>
       </c>
       <c r="E83" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>82.00000000000001</v>
+        <v>82.70000000000003</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -2525,19 +2525,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C84" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8280000000000006</v>
+        <v>0.8410000000000006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F84" t="n">
-        <v>82.80000000000001</v>
+        <v>84.10000000000004</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -2556,13 +2556,13 @@
         <v>0.012</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8400000000000006</v>
+        <v>0.8530000000000006</v>
       </c>
       <c r="E85" t="n">
         <v>1.2</v>
       </c>
       <c r="F85" t="n">
-        <v>84.00000000000001</v>
+        <v>85.30000000000004</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -2575,19 +2575,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8550000000000006</v>
+        <v>0.8650000000000007</v>
       </c>
       <c r="E86" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F86" t="n">
-        <v>85.50000000000001</v>
+        <v>86.50000000000004</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2600,19 +2600,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8660000000000007</v>
+        <v>0.8740000000000007</v>
       </c>
       <c r="E87" t="n">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F87" t="n">
-        <v>86.60000000000001</v>
+        <v>87.40000000000005</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -2625,19 +2625,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8730000000000007</v>
+        <v>0.8790000000000007</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F88" t="n">
-        <v>87.30000000000001</v>
+        <v>87.90000000000005</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -2650,19 +2650,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89" t="n">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8880000000000007</v>
+        <v>0.8850000000000007</v>
       </c>
       <c r="E89" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="F89" t="n">
-        <v>88.80000000000001</v>
+        <v>88.50000000000004</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -2681,13 +2681,13 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8970000000000007</v>
+        <v>0.8940000000000007</v>
       </c>
       <c r="E90" t="n">
         <v>0.8999999999999999</v>
       </c>
       <c r="F90" t="n">
-        <v>89.70000000000002</v>
+        <v>89.40000000000005</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         <v>0.013</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9100000000000007</v>
+        <v>0.9070000000000007</v>
       </c>
       <c r="E91" t="n">
         <v>1.3</v>
       </c>
       <c r="F91" t="n">
-        <v>91.00000000000001</v>
+        <v>90.70000000000005</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -2725,19 +2725,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C92" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="D92" t="n">
-        <v>0.9190000000000007</v>
+        <v>0.9120000000000007</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F92" t="n">
-        <v>91.90000000000002</v>
+        <v>91.20000000000005</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -2750,19 +2750,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C93" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9280000000000007</v>
+        <v>0.9230000000000007</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="F93" t="n">
-        <v>92.80000000000003</v>
+        <v>92.30000000000004</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -2775,19 +2775,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9370000000000007</v>
+        <v>0.9330000000000007</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>93.70000000000003</v>
+        <v>93.30000000000004</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -2800,19 +2800,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9440000000000007</v>
+        <v>0.9380000000000007</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="F95" t="n">
-        <v>94.40000000000003</v>
+        <v>93.80000000000004</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -2825,19 +2825,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9540000000000007</v>
+        <v>0.9500000000000007</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="F96" t="n">
-        <v>95.40000000000003</v>
+        <v>95.00000000000004</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -2850,19 +2850,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="D97" t="n">
-        <v>0.9610000000000007</v>
+        <v>0.9640000000000007</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F97" t="n">
-        <v>96.10000000000004</v>
+        <v>96.40000000000005</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -2875,19 +2875,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C98" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9690000000000007</v>
+        <v>0.9790000000000008</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F98" t="n">
-        <v>96.90000000000003</v>
+        <v>97.90000000000005</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -2900,19 +2900,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9780000000000008</v>
+        <v>0.9900000000000008</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="F99" t="n">
-        <v>97.80000000000004</v>
+        <v>99.00000000000004</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -2925,19 +2925,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9890000000000008</v>
+        <v>0.9940000000000008</v>
       </c>
       <c r="E100" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="F100" t="n">
-        <v>98.90000000000003</v>
+        <v>99.40000000000005</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -2950,16 +2950,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="D101" t="n">
         <v>1.000000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="F101" t="n">
         <v>100</v>
